--- a/Results.xlsx
+++ b/Results.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>String Formatting</t>
   </si>
@@ -73,21 +73,12 @@
     <t>Use Boxing</t>
   </si>
   <si>
-    <t>Time in milliseconds</t>
-  </si>
-  <si>
     <t>StringBuilder</t>
   </si>
   <si>
     <t>Single</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Million</t>
   </si>
   <si>
@@ -98,6 +89,9 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Time in ticks</t>
   </si>
 </sst>
 </file>
@@ -105,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#\ ###\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ###\ ##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +122,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,15 +155,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,260 +486,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>215899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1373898</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2417712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1928670</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2169439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2351854</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2417712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2446046</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>918</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3431255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>215899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>3558349</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2169439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3431255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2351854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2446046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1373898</v>
-      </c>
+      <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D17">
+    <sortState ref="A4:D17">
+      <sortCondition ref="D1:D17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
